--- a/excel_1.xlsx
+++ b/excel_1.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shrirang\Desktop\Data Science Practice\My Projects\Mahesh Jupyter notebook\Shuffle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FD4F5-4499-4102-8621-B30C27DB03FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A27CA-4B3F-4B60-A3E6-8C46C898268F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="204" yWindow="1092" windowWidth="16056" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="53">
   <si>
     <t>12/1</t>
   </si>
@@ -143,6 +145,42 @@
   </si>
   <si>
     <t>Shri</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Shikhar</t>
+  </si>
+  <si>
+    <t>Ajinkya</t>
+  </si>
+  <si>
+    <t>Hardik</t>
+  </si>
+  <si>
+    <t>Jasprit</t>
+  </si>
+  <si>
+    <t>Krushna</t>
+  </si>
+  <si>
+    <t>Sachine</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Shekhar</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
   </si>
 </sst>
 </file>
@@ -215,19 +253,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,22 +606,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -684,7 +722,7 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>44206</v>
       </c>
       <c r="C2" t="s">
@@ -785,7 +823,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>44207</v>
       </c>
       <c r="C3" t="s">
@@ -886,7 +924,7 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>44208</v>
       </c>
       <c r="C4" t="s">
@@ -987,7 +1025,7 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>44209</v>
       </c>
       <c r="C5" t="s">
@@ -1088,7 +1126,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>44210</v>
       </c>
       <c r="C6" t="s">
@@ -1189,7 +1227,7 @@
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>44211</v>
       </c>
       <c r="C7" t="s">
@@ -1287,28 +1325,1524 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F4061F-6E98-4B4C-B02D-E9AC22AE3DC3}">
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417708-F73E-47CF-BDF1-71025DF238E2}">
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_1.xlsx
+++ b/excel_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shrirang\Desktop\Data Science Practice\My Projects\Mahesh Jupyter notebook\Shuffle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shrirang\Desktop\Data Science Practice\My Projects\Mahesh new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A27CA-4B3F-4B60-A3E6-8C46C898268F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897481B6-0A09-4AAD-9BCE-63262F31BB67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="1092" windowWidth="16056" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -2101,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417708-F73E-47CF-BDF1-71025DF238E2}">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2821,27 +2821,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
